--- a/biology/Zoologie/Grandilithus_ensifer/Grandilithus_ensifer.xlsx
+++ b/biology/Zoologie/Grandilithus_ensifer/Grandilithus_ensifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus ensifer est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus ensifer est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine[1],[2]. Elle se rencontre dans le xian de Yizhang.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine,. Elle se rencontre dans le xian de Yizhang.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,53 mm et la femelle paratype 4,31 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,53 mm et la femelle paratype 4,31 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia ensifera par Mu et Zhang en 2021. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia ensifera par Mu et Zhang en 2021. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mu &amp; Zhang, 2021 : « Seven new Otacilia Thorell, 1897 species from China (Araneae: Phrurolithidae). » Zootaxa, no 5032(4), p. 533-548.</t>
         </is>
